--- a/data/spreadsheets/LinkObject.xlsx
+++ b/data/spreadsheets/LinkObject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA9342-BA6B-A04A-B055-997297B32F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284818A9-5E98-0246-9995-6DD614C63792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{557D84C7-BF94-A14A-89D6-20C312FB9AE5}"/>
+    <workbookView xWindow="17680" yWindow="4080" windowWidth="27640" windowHeight="16940" xr2:uid="{557D84C7-BF94-A14A-89D6-20C312FB9AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -66,16 +66,34 @@
   </si>
   <si>
     <t>CH_004, CH_005, CH_006, CH_007, CH_008, CH_011, CH_018,BCH_003, BCH_005, BCH_006, BCH_007, BCH_008, BCH_009, BCH_010, BCH_011, BCH_012, BCH_013, BCH_019, BCH_020, BCH_021, BCH_022, BCH_023, BCH_024, BCH_025</t>
+  </si>
+  <si>
+    <t>link_object_02</t>
+  </si>
+  <si>
+    <t>Image_Annotations</t>
+  </si>
+  <si>
+    <t>I_001, I_002, I_006, I_037, I_012, I_030, I_032</t>
+  </si>
+  <si>
+    <t>Images containing annotations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A473E4-8BC7-DC49-8DF4-A0AEA6D81506}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +507,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/spreadsheets/LinkObject.xlsx
+++ b/data/spreadsheets/LinkObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284818A9-5E98-0246-9995-6DD614C63792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F259DCA-1A89-CA48-AFCC-299C87551B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="4080" windowWidth="27640" windowHeight="16940" xr2:uid="{557D84C7-BF94-A14A-89D6-20C312FB9AE5}"/>
+    <workbookView xWindow="16500" yWindow="520" windowWidth="20420" windowHeight="22880" xr2:uid="{557D84C7-BF94-A14A-89D6-20C312FB9AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
